--- a/pkg/excels/templates/Шаблон для импорта Рабочего Персонала.xlsx
+++ b/pkg/excels/templates/Шаблон для импорта Рабочего Персонала.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamad\OneDrive\Desktop\ТГЭМ\backend-v2\pkg\excels\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5EA263-95E4-408C-963C-B719682A1579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21D3E94-4E22-4303-A374-5C1344786FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,33 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <r>
       <t>Имя</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Должность</t>
     </r>
     <r>
       <rPr>
@@ -223,6 +200,48 @@
   </si>
   <si>
     <t>Специалист по контролю качества работ и подсчета материалов</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Должность в Проекте</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>ID сотрудника</t>
+  </si>
+  <si>
+    <r>
+      <t>Должность в ТГЭМ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -576,15 +595,16 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -592,13 +612,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -632,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097094F9-7E6F-44E4-B859-0524084CD09F}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,232 +667,232 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/pkg/excels/templates/Шаблон для импорта Рабочего Персонала.xlsx
+++ b/pkg/excels/templates/Шаблон для импорта Рабочего Персонала.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamad\OneDrive\Desktop\ТГЭМ\backend-v2\pkg\excels\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\TGEM\tgem-backend\pkg\excels\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21D3E94-4E22-4303-A374-5C1344786FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Импорт" sheetId="1" r:id="rId1"/>
@@ -247,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,7 +313,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,11 +590,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,25 +625,31 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D47 E2:E126" xr:uid="{369879D8-D174-4EAD-B927-0696E229D932}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E126">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BEF7AA8-B587-4114-8370-3FF93C5AD676}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Должность!$A$2:$A$220</xm:f>
           </x14:formula1>
           <xm:sqref>E127:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D25CAE0-F1B8-4501-BAC4-5A89C519E437}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Должность!$A$2:$A$348</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Должность!$A$2:$A$46</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -653,10 +658,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097094F9-7E6F-44E4-B859-0524084CD09F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
